--- a/flows/XOP_fund_flow_data.xlsx
+++ b/flows/XOP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4458"/>
+  <dimension ref="A1:B4465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45015,6 +45015,76 @@
         <v>-34.97992</v>
       </c>
     </row>
+    <row r="4459">
+      <c r="A4459" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4459" t="n">
+        <v>-55.563633</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4460" t="n">
+        <v>35.10138</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4461" t="n">
+        <v>14.231927</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4462" t="n">
+        <v>-42.253277</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4463" t="n">
+        <v>141.40726</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4464" t="n">
+        <v>-7.0731697</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4465" t="n">
+        <v>-21.35939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
